--- a/model/updated_dataset.xlsx
+++ b/model/updated_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliancerniello/directory/UVA/ENGR_2/schedulingsolar/schedulingsolar/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77FE2E9-0994-744C-9F08-FEB1F6EE8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A3F18-E2BF-9448-8FBC-F8A824DEB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="760" windowWidth="26540" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-200" yWindow="16900" windowWidth="26540" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Data" sheetId="6" r:id="rId1"/>
@@ -27,11 +27,11 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{32E7FD16-F8BE-4F2A-9F35-A1460ACA06A5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{0C919341-258F-4AF3-8A56-268B72B33689}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{87F4D95B-5F8B-44EE-97CD-64E7DFBCE2DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 5" guid="{7C804074-6DA7-4BC7-B65A-318DB7A8DAB9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{C9B7AB2E-9BC4-41AF-B464-793C7426A8A8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 5" guid="{7C804074-6DA7-4BC7-B65A-318DB7A8DAB9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{87F4D95B-5F8B-44EE-97CD-64E7DFBCE2DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{0C919341-258F-4AF3-8A56-268B72B33689}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{32E7FD16-F8BE-4F2A-9F35-A1460ACA06A5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3525,7 +3525,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3539,10 +3548,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3555,20 +3560,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3911,10 +3911,10 @@
   <dimension ref="A1:AM283"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -38120,106 +38120,106 @@
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="208" t="s">
         <v>659</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="204"/>
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="204"/>
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="204"/>
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="205"/>
     </row>
     <row r="3" spans="2:44" ht="13" x14ac:dyDescent="0.15">
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="210" t="s">
+      <c r="H3" s="211" t="s">
         <v>660</v>
       </c>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="203" t="s">
+      <c r="I3" s="204"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="210" t="s">
         <v>661</v>
       </c>
-      <c r="L3" s="201"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="203" t="s">
+      <c r="L3" s="204"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="210" t="s">
         <v>662</v>
       </c>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="203" t="s">
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="210" t="s">
         <v>663</v>
       </c>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="203" t="s">
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="210" t="s">
         <v>664</v>
       </c>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="203" t="s">
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="210" t="s">
         <v>665</v>
       </c>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="203" t="s">
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="210" t="s">
         <v>666</v>
       </c>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="202"/>
-      <c r="AH3" s="210" t="s">
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="205"/>
+      <c r="AH3" s="211" t="s">
         <v>667</v>
       </c>
-      <c r="AI3" s="201"/>
-      <c r="AJ3" s="202"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="205"/>
       <c r="AK3" s="40"/>
-      <c r="AL3" s="210" t="s">
+      <c r="AL3" s="211" t="s">
         <v>668</v>
       </c>
-      <c r="AM3" s="201"/>
-      <c r="AN3" s="202"/>
-      <c r="AP3" s="210" t="s">
+      <c r="AM3" s="204"/>
+      <c r="AN3" s="205"/>
+      <c r="AP3" s="211" t="s">
         <v>669</v>
       </c>
-      <c r="AQ3" s="201"/>
-      <c r="AR3" s="202"/>
+      <c r="AQ3" s="204"/>
+      <c r="AR3" s="205"/>
     </row>
     <row r="4" spans="2:44" ht="84" x14ac:dyDescent="0.15">
       <c r="D4" s="63"/>
@@ -40638,18 +40638,18 @@
       <c r="X23" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="AH23" s="212" t="s">
+      <c r="AH23" s="195" t="s">
         <v>733</v>
       </c>
       <c r="AI23" s="194"/>
       <c r="AJ23" s="194"/>
       <c r="AK23" s="180"/>
-      <c r="AL23" s="212" t="s">
+      <c r="AL23" s="195" t="s">
         <v>734</v>
       </c>
       <c r="AM23" s="194"/>
       <c r="AN23" s="194"/>
-      <c r="AP23" s="212" t="s">
+      <c r="AP23" s="195" t="s">
         <v>735</v>
       </c>
       <c r="AQ23" s="194"/>
@@ -40685,7 +40685,7 @@
     </row>
     <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.15">
       <c r="G25" s="179"/>
-      <c r="H25" s="211" t="s">
+      <c r="H25" s="197" t="s">
         <v>738</v>
       </c>
       <c r="I25" s="194"/>
@@ -40729,7 +40729,7 @@
       <c r="U26" s="181"/>
       <c r="V26" s="181"/>
       <c r="W26" s="181"/>
-      <c r="X26" s="213" t="s">
+      <c r="X26" s="196" t="s">
         <v>740</v>
       </c>
       <c r="Y26" s="194"/>
@@ -40768,14 +40768,14 @@
       <c r="U28" s="179"/>
       <c r="V28" s="179"/>
       <c r="W28" s="179"/>
-      <c r="X28" s="211" t="s">
+      <c r="X28" s="197" t="s">
         <v>741</v>
       </c>
       <c r="Y28" s="194"/>
       <c r="Z28" s="194"/>
     </row>
     <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="H29" s="211" t="s">
+      <c r="H29" s="197" t="s">
         <v>741</v>
       </c>
       <c r="I29" s="194"/>
@@ -40800,16 +40800,16 @@
       <c r="J30" s="194"/>
     </row>
     <row r="33" spans="4:40" ht="13" x14ac:dyDescent="0.15">
-      <c r="AH33" s="200" t="s">
+      <c r="AH33" s="203" t="s">
         <v>742</v>
       </c>
-      <c r="AI33" s="201"/>
-      <c r="AJ33" s="202"/>
-      <c r="AL33" s="200" t="s">
+      <c r="AI33" s="204"/>
+      <c r="AJ33" s="205"/>
+      <c r="AL33" s="203" t="s">
         <v>743</v>
       </c>
-      <c r="AM33" s="201"/>
-      <c r="AN33" s="202"/>
+      <c r="AM33" s="204"/>
+      <c r="AN33" s="205"/>
     </row>
     <row r="34" spans="4:40" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="63"/>
@@ -40820,16 +40820,16 @@
       <c r="AF34" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="AH34" s="205" t="s">
+      <c r="AH34" s="206" t="s">
         <v>745</v>
       </c>
-      <c r="AI34" s="196"/>
-      <c r="AJ34" s="199"/>
-      <c r="AL34" s="206" t="s">
+      <c r="AI34" s="199"/>
+      <c r="AJ34" s="202"/>
+      <c r="AL34" s="207" t="s">
         <v>746</v>
       </c>
-      <c r="AM34" s="201"/>
-      <c r="AN34" s="202"/>
+      <c r="AM34" s="204"/>
+      <c r="AN34" s="205"/>
     </row>
     <row r="35" spans="4:40" ht="13" x14ac:dyDescent="0.15">
       <c r="D35" s="60"/>
@@ -41317,102 +41317,102 @@
       <c r="AR50" s="125"/>
     </row>
     <row r="51" spans="2:44" ht="18" x14ac:dyDescent="0.2">
-      <c r="H51" s="207" t="s">
+      <c r="H51" s="208" t="s">
         <v>747</v>
       </c>
-      <c r="I51" s="201"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="201"/>
-      <c r="O51" s="201"/>
-      <c r="P51" s="201"/>
-      <c r="Q51" s="201"/>
-      <c r="R51" s="201"/>
-      <c r="S51" s="201"/>
-      <c r="T51" s="201"/>
-      <c r="U51" s="201"/>
-      <c r="V51" s="201"/>
-      <c r="W51" s="201"/>
-      <c r="X51" s="201"/>
-      <c r="Y51" s="201"/>
-      <c r="Z51" s="201"/>
-      <c r="AA51" s="201"/>
-      <c r="AB51" s="201"/>
-      <c r="AC51" s="201"/>
-      <c r="AD51" s="201"/>
-      <c r="AE51" s="201"/>
-      <c r="AF51" s="201"/>
-      <c r="AG51" s="201"/>
-      <c r="AH51" s="201"/>
-      <c r="AI51" s="201"/>
-      <c r="AJ51" s="201"/>
-      <c r="AK51" s="201"/>
-      <c r="AL51" s="201"/>
-      <c r="AM51" s="201"/>
-      <c r="AN51" s="201"/>
-      <c r="AO51" s="201"/>
-      <c r="AP51" s="201"/>
-      <c r="AQ51" s="201"/>
-      <c r="AR51" s="202"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="204"/>
+      <c r="K51" s="204"/>
+      <c r="L51" s="204"/>
+      <c r="M51" s="204"/>
+      <c r="N51" s="204"/>
+      <c r="O51" s="204"/>
+      <c r="P51" s="204"/>
+      <c r="Q51" s="204"/>
+      <c r="R51" s="204"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="204"/>
+      <c r="U51" s="204"/>
+      <c r="V51" s="204"/>
+      <c r="W51" s="204"/>
+      <c r="X51" s="204"/>
+      <c r="Y51" s="204"/>
+      <c r="Z51" s="204"/>
+      <c r="AA51" s="204"/>
+      <c r="AB51" s="204"/>
+      <c r="AC51" s="204"/>
+      <c r="AD51" s="204"/>
+      <c r="AE51" s="204"/>
+      <c r="AF51" s="204"/>
+      <c r="AG51" s="204"/>
+      <c r="AH51" s="204"/>
+      <c r="AI51" s="204"/>
+      <c r="AJ51" s="204"/>
+      <c r="AK51" s="204"/>
+      <c r="AL51" s="204"/>
+      <c r="AM51" s="204"/>
+      <c r="AN51" s="204"/>
+      <c r="AO51" s="204"/>
+      <c r="AP51" s="204"/>
+      <c r="AQ51" s="204"/>
+      <c r="AR51" s="205"/>
     </row>
     <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="H52" s="208" t="s">
+      <c r="H52" s="209" t="s">
         <v>660</v>
       </c>
-      <c r="I52" s="196"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="195" t="s">
+      <c r="I52" s="199"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="213" t="s">
         <v>748</v>
       </c>
-      <c r="L52" s="196"/>
-      <c r="M52" s="197"/>
-      <c r="N52" s="203" t="s">
+      <c r="L52" s="199"/>
+      <c r="M52" s="200"/>
+      <c r="N52" s="210" t="s">
         <v>662</v>
       </c>
-      <c r="O52" s="201"/>
-      <c r="P52" s="201"/>
-      <c r="Q52" s="201"/>
-      <c r="R52" s="204"/>
-      <c r="S52" s="203" t="s">
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="212"/>
+      <c r="S52" s="210" t="s">
         <v>663</v>
       </c>
-      <c r="T52" s="201"/>
-      <c r="U52" s="201"/>
-      <c r="V52" s="201"/>
-      <c r="W52" s="204"/>
-      <c r="X52" s="209" t="s">
+      <c r="T52" s="204"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="204"/>
+      <c r="W52" s="212"/>
+      <c r="X52" s="198" t="s">
         <v>664</v>
       </c>
-      <c r="Y52" s="196"/>
-      <c r="Z52" s="197"/>
-      <c r="AA52" s="209" t="s">
+      <c r="Y52" s="199"/>
+      <c r="Z52" s="200"/>
+      <c r="AA52" s="198" t="s">
         <v>749</v>
       </c>
-      <c r="AB52" s="196"/>
-      <c r="AC52" s="197"/>
-      <c r="AD52" s="209" t="s">
+      <c r="AB52" s="199"/>
+      <c r="AC52" s="200"/>
+      <c r="AD52" s="198" t="s">
         <v>750</v>
       </c>
-      <c r="AE52" s="196"/>
-      <c r="AF52" s="199"/>
-      <c r="AH52" s="198" t="s">
+      <c r="AE52" s="199"/>
+      <c r="AF52" s="202"/>
+      <c r="AH52" s="201" t="s">
         <v>667</v>
       </c>
-      <c r="AI52" s="196"/>
-      <c r="AJ52" s="199"/>
+      <c r="AI52" s="199"/>
+      <c r="AJ52" s="202"/>
       <c r="AK52" s="40"/>
-      <c r="AL52" s="198" t="s">
+      <c r="AL52" s="201" t="s">
         <v>668</v>
       </c>
-      <c r="AM52" s="196"/>
-      <c r="AN52" s="199"/>
-      <c r="AP52" s="198" t="s">
+      <c r="AM52" s="199"/>
+      <c r="AN52" s="202"/>
+      <c r="AP52" s="201" t="s">
         <v>669</v>
       </c>
-      <c r="AQ52" s="196"/>
-      <c r="AR52" s="199"/>
+      <c r="AQ52" s="199"/>
+      <c r="AR52" s="202"/>
     </row>
     <row r="53" spans="2:44" ht="84" x14ac:dyDescent="0.15">
       <c r="D53" s="63"/>
@@ -43818,16 +43818,16 @@
       </c>
     </row>
     <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="AH72" s="200" t="s">
+      <c r="AH72" s="203" t="s">
         <v>742</v>
       </c>
-      <c r="AI72" s="201"/>
-      <c r="AJ72" s="202"/>
-      <c r="AL72" s="200" t="s">
+      <c r="AI72" s="204"/>
+      <c r="AJ72" s="205"/>
+      <c r="AL72" s="203" t="s">
         <v>743</v>
       </c>
-      <c r="AM72" s="201"/>
-      <c r="AN72" s="202"/>
+      <c r="AM72" s="204"/>
+      <c r="AN72" s="205"/>
     </row>
     <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.15">
       <c r="D73" s="63"/>
@@ -43838,16 +43838,16 @@
       <c r="AF73" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="AH73" s="205" t="s">
+      <c r="AH73" s="206" t="s">
         <v>752</v>
       </c>
-      <c r="AI73" s="196"/>
-      <c r="AJ73" s="199"/>
-      <c r="AL73" s="206" t="s">
+      <c r="AI73" s="199"/>
+      <c r="AJ73" s="202"/>
+      <c r="AL73" s="207" t="s">
         <v>753</v>
       </c>
-      <c r="AM73" s="201"/>
-      <c r="AN73" s="202"/>
+      <c r="AM73" s="204"/>
+      <c r="AN73" s="205"/>
     </row>
     <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.15">
       <c r="D74" s="60"/>
@@ -44330,102 +44330,102 @@
       <c r="AR89" s="142"/>
     </row>
     <row r="91" spans="2:44" ht="18" x14ac:dyDescent="0.2">
-      <c r="H91" s="207" t="s">
+      <c r="H91" s="208" t="s">
         <v>754</v>
       </c>
-      <c r="I91" s="201"/>
-      <c r="J91" s="201"/>
-      <c r="K91" s="201"/>
-      <c r="L91" s="201"/>
-      <c r="M91" s="201"/>
-      <c r="N91" s="201"/>
-      <c r="O91" s="201"/>
-      <c r="P91" s="201"/>
-      <c r="Q91" s="201"/>
-      <c r="R91" s="201"/>
-      <c r="S91" s="201"/>
-      <c r="T91" s="201"/>
-      <c r="U91" s="201"/>
-      <c r="V91" s="201"/>
-      <c r="W91" s="201"/>
-      <c r="X91" s="201"/>
-      <c r="Y91" s="201"/>
-      <c r="Z91" s="201"/>
-      <c r="AA91" s="201"/>
-      <c r="AB91" s="201"/>
-      <c r="AC91" s="201"/>
-      <c r="AD91" s="201"/>
-      <c r="AE91" s="201"/>
-      <c r="AF91" s="201"/>
-      <c r="AG91" s="201"/>
-      <c r="AH91" s="201"/>
-      <c r="AI91" s="201"/>
-      <c r="AJ91" s="201"/>
-      <c r="AK91" s="201"/>
-      <c r="AL91" s="201"/>
-      <c r="AM91" s="201"/>
-      <c r="AN91" s="201"/>
-      <c r="AO91" s="201"/>
-      <c r="AP91" s="201"/>
-      <c r="AQ91" s="201"/>
-      <c r="AR91" s="202"/>
+      <c r="I91" s="204"/>
+      <c r="J91" s="204"/>
+      <c r="K91" s="204"/>
+      <c r="L91" s="204"/>
+      <c r="M91" s="204"/>
+      <c r="N91" s="204"/>
+      <c r="O91" s="204"/>
+      <c r="P91" s="204"/>
+      <c r="Q91" s="204"/>
+      <c r="R91" s="204"/>
+      <c r="S91" s="204"/>
+      <c r="T91" s="204"/>
+      <c r="U91" s="204"/>
+      <c r="V91" s="204"/>
+      <c r="W91" s="204"/>
+      <c r="X91" s="204"/>
+      <c r="Y91" s="204"/>
+      <c r="Z91" s="204"/>
+      <c r="AA91" s="204"/>
+      <c r="AB91" s="204"/>
+      <c r="AC91" s="204"/>
+      <c r="AD91" s="204"/>
+      <c r="AE91" s="204"/>
+      <c r="AF91" s="204"/>
+      <c r="AG91" s="204"/>
+      <c r="AH91" s="204"/>
+      <c r="AI91" s="204"/>
+      <c r="AJ91" s="204"/>
+      <c r="AK91" s="204"/>
+      <c r="AL91" s="204"/>
+      <c r="AM91" s="204"/>
+      <c r="AN91" s="204"/>
+      <c r="AO91" s="204"/>
+      <c r="AP91" s="204"/>
+      <c r="AQ91" s="204"/>
+      <c r="AR91" s="205"/>
     </row>
     <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="H92" s="208" t="s">
+      <c r="H92" s="209" t="s">
         <v>660</v>
       </c>
-      <c r="I92" s="196"/>
-      <c r="J92" s="199"/>
-      <c r="K92" s="195" t="s">
+      <c r="I92" s="199"/>
+      <c r="J92" s="202"/>
+      <c r="K92" s="213" t="s">
         <v>748</v>
       </c>
-      <c r="L92" s="196"/>
-      <c r="M92" s="197"/>
-      <c r="N92" s="203" t="s">
+      <c r="L92" s="199"/>
+      <c r="M92" s="200"/>
+      <c r="N92" s="210" t="s">
         <v>662</v>
       </c>
-      <c r="O92" s="201"/>
-      <c r="P92" s="201"/>
-      <c r="Q92" s="201"/>
-      <c r="R92" s="204"/>
-      <c r="S92" s="203" t="s">
+      <c r="O92" s="204"/>
+      <c r="P92" s="204"/>
+      <c r="Q92" s="204"/>
+      <c r="R92" s="212"/>
+      <c r="S92" s="210" t="s">
         <v>663</v>
       </c>
-      <c r="T92" s="201"/>
-      <c r="U92" s="201"/>
-      <c r="V92" s="201"/>
-      <c r="W92" s="204"/>
-      <c r="X92" s="209" t="s">
+      <c r="T92" s="204"/>
+      <c r="U92" s="204"/>
+      <c r="V92" s="204"/>
+      <c r="W92" s="212"/>
+      <c r="X92" s="198" t="s">
         <v>664</v>
       </c>
-      <c r="Y92" s="196"/>
-      <c r="Z92" s="197"/>
-      <c r="AA92" s="209" t="s">
+      <c r="Y92" s="199"/>
+      <c r="Z92" s="200"/>
+      <c r="AA92" s="198" t="s">
         <v>749</v>
       </c>
-      <c r="AB92" s="196"/>
-      <c r="AC92" s="197"/>
-      <c r="AD92" s="209" t="s">
+      <c r="AB92" s="199"/>
+      <c r="AC92" s="200"/>
+      <c r="AD92" s="198" t="s">
         <v>750</v>
       </c>
-      <c r="AE92" s="196"/>
-      <c r="AF92" s="199"/>
-      <c r="AH92" s="198" t="s">
+      <c r="AE92" s="199"/>
+      <c r="AF92" s="202"/>
+      <c r="AH92" s="201" t="s">
         <v>667</v>
       </c>
-      <c r="AI92" s="196"/>
-      <c r="AJ92" s="199"/>
+      <c r="AI92" s="199"/>
+      <c r="AJ92" s="202"/>
       <c r="AK92" s="40"/>
-      <c r="AL92" s="198" t="s">
+      <c r="AL92" s="201" t="s">
         <v>668</v>
       </c>
-      <c r="AM92" s="196"/>
-      <c r="AN92" s="199"/>
-      <c r="AP92" s="198" t="s">
+      <c r="AM92" s="199"/>
+      <c r="AN92" s="202"/>
+      <c r="AP92" s="201" t="s">
         <v>669</v>
       </c>
-      <c r="AQ92" s="196"/>
-      <c r="AR92" s="199"/>
+      <c r="AQ92" s="199"/>
+      <c r="AR92" s="202"/>
     </row>
     <row r="93" spans="2:44" ht="84" x14ac:dyDescent="0.15">
       <c r="D93" s="63"/>
@@ -46853,16 +46853,16 @@
       </c>
     </row>
     <row r="112" spans="2:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="AH112" s="200" t="s">
+      <c r="AH112" s="203" t="s">
         <v>742</v>
       </c>
-      <c r="AI112" s="201"/>
-      <c r="AJ112" s="202"/>
-      <c r="AL112" s="200" t="s">
+      <c r="AI112" s="204"/>
+      <c r="AJ112" s="205"/>
+      <c r="AL112" s="203" t="s">
         <v>743</v>
       </c>
-      <c r="AM112" s="201"/>
-      <c r="AN112" s="202"/>
+      <c r="AM112" s="204"/>
+      <c r="AN112" s="205"/>
     </row>
     <row r="113" spans="4:40" ht="13" x14ac:dyDescent="0.15">
       <c r="D113" s="63"/>
@@ -46873,16 +46873,16 @@
       <c r="AF113" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="AH113" s="205" t="s">
+      <c r="AH113" s="206" t="s">
         <v>756</v>
       </c>
-      <c r="AI113" s="196"/>
-      <c r="AJ113" s="199"/>
-      <c r="AL113" s="206" t="s">
+      <c r="AI113" s="199"/>
+      <c r="AJ113" s="202"/>
+      <c r="AL113" s="207" t="s">
         <v>753</v>
       </c>
-      <c r="AM113" s="201"/>
-      <c r="AN113" s="202"/>
+      <c r="AM113" s="204"/>
+      <c r="AN113" s="205"/>
     </row>
     <row r="114" spans="4:40" ht="13" x14ac:dyDescent="0.15">
       <c r="D114" s="60"/>
@@ -47325,6 +47325,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="AP92:AR92"/>
+    <mergeCell ref="AH112:AJ112"/>
+    <mergeCell ref="AL112:AN112"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="AH72:AJ72"/>
+    <mergeCell ref="AL72:AN72"/>
+    <mergeCell ref="AH73:AJ73"/>
+    <mergeCell ref="AL73:AN73"/>
+    <mergeCell ref="H91:AR91"/>
+    <mergeCell ref="AH113:AJ113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:R92"/>
+    <mergeCell ref="S92:W92"/>
+    <mergeCell ref="X92:Z92"/>
+    <mergeCell ref="AA92:AC92"/>
+    <mergeCell ref="AD92:AF92"/>
+    <mergeCell ref="AH92:AJ92"/>
+    <mergeCell ref="AL92:AN92"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="H2:AR2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="H25:J27"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AH23:AJ25"/>
     <mergeCell ref="AL23:AN25"/>
     <mergeCell ref="AP23:AR26"/>
     <mergeCell ref="X26:Z27"/>
@@ -47341,42 +47377,6 @@
     <mergeCell ref="AL34:AN34"/>
     <mergeCell ref="H51:AR51"/>
     <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H25:J27"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AH23:AJ25"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="H2:AR2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AH113:AJ113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:R92"/>
-    <mergeCell ref="S92:W92"/>
-    <mergeCell ref="X92:Z92"/>
-    <mergeCell ref="AA92:AC92"/>
-    <mergeCell ref="AD92:AF92"/>
-    <mergeCell ref="AH92:AJ92"/>
-    <mergeCell ref="AL92:AN92"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="AP92:AR92"/>
-    <mergeCell ref="AH112:AJ112"/>
-    <mergeCell ref="AL112:AN112"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="AH72:AJ72"/>
-    <mergeCell ref="AL72:AN72"/>
-    <mergeCell ref="AH73:AJ73"/>
-    <mergeCell ref="AL73:AN73"/>
-    <mergeCell ref="H91:AR91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
